--- a/100runs/run085/NotionalETEOutput085.xlsx
+++ b/100runs/run085/NotionalETEOutput085.xlsx
@@ -52,7 +52,7 @@
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_239.MISSILE_BRAVER_239</t>
+    <t>MISSILE_BRAVER_367.MISSILE_BRAVER_367</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
@@ -471,22 +471,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>278.857125276114</v>
+        <v>1116578.064176414</v>
       </c>
       <c r="G2">
-        <v>-125.8037970749612</v>
+        <v>4841126.242601724</v>
       </c>
       <c r="H2">
-        <v>912.9076309742844</v>
+        <v>3985222.939608627</v>
       </c>
       <c r="I2">
-        <v>-1304.575012665607</v>
+        <v>1114862.002819476</v>
       </c>
       <c r="J2">
-        <v>2012.414111083904</v>
+        <v>4843225.399868734</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984370.455925137</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>278.857125276114</v>
+        <v>1116578.064176414</v>
       </c>
       <c r="G3">
-        <v>-125.8037970749612</v>
+        <v>4841126.242601724</v>
       </c>
       <c r="H3">
-        <v>912.9076309742844</v>
+        <v>3985222.939608627</v>
       </c>
       <c r="I3">
-        <v>-1278.81922817502</v>
+        <v>1114891.616833083</v>
       </c>
       <c r="J3">
-        <v>1963.460539738229</v>
+        <v>4843176.74825915</v>
       </c>
       <c r="K3">
-        <v>160.9219572211948</v>
+        <v>3984674.251927387</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>278.857125276114</v>
+        <v>1116578.064176414</v>
       </c>
       <c r="G4">
-        <v>-125.8037970749612</v>
+        <v>4841126.242601724</v>
       </c>
       <c r="H4">
-        <v>912.9076309742844</v>
+        <v>3985222.939608627</v>
       </c>
       <c r="I4">
-        <v>-1252.429231186239</v>
+        <v>1114921.960064531</v>
       </c>
       <c r="J4">
-        <v>1914.506968392554</v>
+        <v>4843128.096649566</v>
       </c>
       <c r="K4">
-        <v>313.8196080155701</v>
+        <v>3984962.899268415</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>278.857125276114</v>
+        <v>1116578.064176414</v>
       </c>
       <c r="G5">
-        <v>-125.8037970749612</v>
+        <v>4841126.242601724</v>
       </c>
       <c r="H5">
-        <v>912.9076309742844</v>
+        <v>3985222.939608627</v>
       </c>
       <c r="I5">
-        <v>-1225.389404799961</v>
+        <v>1114953.050470138</v>
       </c>
       <c r="J5">
-        <v>1865.553397046879</v>
+        <v>4843079.445039982</v>
       </c>
       <c r="K5">
-        <v>458.6929523831269</v>
+        <v>3985236.397948219</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>278.857125276114</v>
+        <v>1116578.064176414</v>
       </c>
       <c r="G6">
-        <v>-125.8037970749612</v>
+        <v>4841126.242601724</v>
       </c>
       <c r="H6">
-        <v>912.9076309742844</v>
+        <v>3985222.939608627</v>
       </c>
       <c r="I6">
-        <v>-1197.683747565106</v>
+        <v>1114984.906448381</v>
       </c>
       <c r="J6">
-        <v>1816.599825701205</v>
+        <v>4843030.793430397</v>
       </c>
       <c r="K6">
-        <v>595.5419903238644</v>
+        <v>3985494.747966801</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>278.857125276114</v>
+        <v>1116578.064176414</v>
       </c>
       <c r="G7">
-        <v>-125.8037970749612</v>
+        <v>4841126.242601724</v>
       </c>
       <c r="H7">
-        <v>912.9076309742844</v>
+        <v>3985222.939608627</v>
       </c>
       <c r="I7">
-        <v>-1169.295864009579</v>
+        <v>1115017.546850781</v>
       </c>
       <c r="J7">
-        <v>1767.64625435553</v>
+        <v>4842982.141820814</v>
       </c>
       <c r="K7">
-        <v>724.3667218377838</v>
+        <v>3985737.94932416</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>278.857125276114</v>
+        <v>1116578.064176414</v>
       </c>
       <c r="G8">
-        <v>-125.8037970749612</v>
+        <v>4841126.242601724</v>
       </c>
       <c r="H8">
-        <v>912.9076309742844</v>
+        <v>3985222.939608627</v>
       </c>
       <c r="I8">
-        <v>-1140.208954937871</v>
+        <v>1115050.990993061</v>
       </c>
       <c r="J8">
-        <v>1718.692683009855</v>
+        <v>4842933.490211229</v>
       </c>
       <c r="K8">
-        <v>845.1671469248839</v>
+        <v>3985966.002020295</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>278.857125276114</v>
+        <v>1116578.064176414</v>
       </c>
       <c r="G9">
-        <v>-125.8037970749612</v>
+        <v>4841126.242601724</v>
       </c>
       <c r="H9">
-        <v>912.9076309742844</v>
+        <v>3985222.939608627</v>
       </c>
       <c r="I9">
-        <v>-1110.405807489738</v>
+        <v>1115085.258666577</v>
       </c>
       <c r="J9">
-        <v>1669.73911166418</v>
+        <v>4842884.838601645</v>
       </c>
       <c r="K9">
-        <v>957.9432655851654</v>
+        <v>3986178.906055207</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>278.857125276114</v>
+        <v>1116578.064176414</v>
       </c>
       <c r="G10">
-        <v>-105.0300490339674</v>
+        <v>4841142.755426663</v>
       </c>
       <c r="H10">
-        <v>912.9076309742844</v>
+        <v>3985222.939608627</v>
       </c>
       <c r="I10">
-        <v>-1079.868784954088</v>
+        <v>1115120.370150028</v>
       </c>
       <c r="J10">
-        <v>1620.785540318506</v>
+        <v>4842836.186992061</v>
       </c>
       <c r="K10">
-        <v>1062.695077818627</v>
+        <v>3986376.661428896</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>216.4256596989698</v>
+        <v>1116529.383631813</v>
       </c>
       <c r="G11">
-        <v>-84.25630099297371</v>
+        <v>4841159.268251601</v>
       </c>
       <c r="H11">
-        <v>1124.696058353915</v>
+        <v>3985422.193745974</v>
       </c>
       <c r="I11">
-        <v>-1048.579816332043</v>
+        <v>1115156.346221457</v>
       </c>
       <c r="J11">
-        <v>1571.831968972831</v>
+        <v>4842787.535382478</v>
       </c>
       <c r="K11">
-        <v>1159.422583625271</v>
+        <v>3986559.268141362</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>179.7503055727938</v>
+        <v>1116500.78625394</v>
       </c>
       <c r="G12">
-        <v>-63.48255295197998</v>
+        <v>4841175.78107654</v>
       </c>
       <c r="H12">
-        <v>1250.848076972599</v>
+        <v>3985540.879700421</v>
       </c>
       <c r="I12">
-        <v>-1016.520385643004</v>
+        <v>1115193.208170547</v>
       </c>
       <c r="J12">
-        <v>1522.878397627156</v>
+        <v>4842738.883772892</v>
       </c>
       <c r="K12">
-        <v>1248.125783005095</v>
+        <v>3986726.726192605</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>156.5981314082393</v>
+        <v>1116482.733491017</v>
       </c>
       <c r="G13">
-        <v>-42.70880491098624</v>
+        <v>4841192.293901479</v>
       </c>
       <c r="H13">
-        <v>1341.000398390388</v>
+        <v>3985625.696530387</v>
       </c>
       <c r="I13">
-        <v>-983.6715209673818</v>
+        <v>1115230.977811221</v>
       </c>
       <c r="J13">
-        <v>1473.924826281482</v>
+        <v>4842690.232163308</v>
       </c>
       <c r="K13">
-        <v>1328.804675958101</v>
+        <v>3986879.035582624</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>140.4518991260713</v>
+        <v>1116470.143567434</v>
       </c>
       <c r="G14">
-        <v>-21.93505686999249</v>
+        <v>4841208.806726417</v>
       </c>
       <c r="H14">
-        <v>1411.201962779279</v>
+        <v>3985691.743350441</v>
       </c>
       <c r="I14">
-        <v>-950.0137832195244</v>
+        <v>1115269.677494549</v>
       </c>
       <c r="J14">
-        <v>1424.971254935807</v>
+        <v>4842641.580553724</v>
       </c>
       <c r="K14">
-        <v>1401.459262484288</v>
+        <v>3987016.196311421</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>128.4063263190859</v>
+        <v>1116460.751107417</v>
       </c>
       <c r="G15">
-        <v>-1.161308828998768</v>
+        <v>4841225.319551355</v>
       </c>
       <c r="H15">
-        <v>1468.702489343465</v>
+        <v>3985745.840819124</v>
       </c>
       <c r="I15">
-        <v>-915.5272546441769</v>
+        <v>1115309.330121977</v>
       </c>
       <c r="J15">
-        <v>1376.017683590132</v>
+        <v>4842592.928944141</v>
       </c>
       <c r="K15">
-        <v>1466.089542583656</v>
+        <v>3987138.208378995</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>118.9883704983964</v>
+        <v>1116453.407515301</v>
       </c>
       <c r="G16">
-        <v>19.61243921199497</v>
+        <v>4841241.832376293</v>
       </c>
       <c r="H16">
-        <v>1517.401238008327</v>
+        <v>3985791.657426175</v>
       </c>
       <c r="I16">
-        <v>-880.191527029686</v>
+        <v>1115349.959158874</v>
       </c>
       <c r="J16">
-        <v>1327.064112244457</v>
+        <v>4842544.277334556</v>
       </c>
       <c r="K16">
-        <v>1522.695516256205</v>
+        <v>3987245.071785345</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>111.3685584956098</v>
+        <v>1116447.466014575</v>
       </c>
       <c r="G17">
-        <v>40.38618725298872</v>
+        <v>4841258.345201232</v>
       </c>
       <c r="H17">
-        <v>1559.638533111166</v>
+        <v>3985831.394988343</v>
       </c>
       <c r="I17">
-        <v>-843.9856896309612</v>
+        <v>1115391.588648428</v>
       </c>
       <c r="J17">
-        <v>1278.110540898783</v>
+        <v>4842495.625724972</v>
       </c>
       <c r="K17">
-        <v>1571.277183501935</v>
+        <v>3987336.786530472</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>105.0413994421779</v>
+        <v>1116442.532451897</v>
       </c>
       <c r="G18">
-        <v>61.15993529398244</v>
+        <v>4841274.858026171</v>
       </c>
       <c r="H18">
-        <v>1596.92988515041</v>
+        <v>3985866.479323559</v>
       </c>
       <c r="I18">
-        <v>-806.888316795053</v>
+        <v>1115434.243225863</v>
       </c>
       <c r="J18">
-        <v>1229.156969553108</v>
+        <v>4842446.974115388</v>
       </c>
       <c r="K18">
-        <v>1611.834544320847</v>
+        <v>3987413.352614377</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>99.67960820396232</v>
+        <v>1116438.351628732</v>
       </c>
       <c r="G19">
-        <v>81.93368333497621</v>
+        <v>4841291.370851109</v>
       </c>
       <c r="H19">
-        <v>1630.313149322491</v>
+        <v>3985897.886863559</v>
       </c>
       <c r="I19">
-        <v>-768.8774552820173</v>
+        <v>1115477.948133026</v>
       </c>
       <c r="J19">
-        <v>1180.203398207433</v>
+        <v>4842398.322505804</v>
       </c>
       <c r="K19">
-        <v>1644.36759871294</v>
+        <v>3987474.770037058</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>95.06094815055684</v>
+        <v>1116434.750257458</v>
       </c>
       <c r="G20">
-        <v>102.7074313759699</v>
+        <v>4841307.883676047</v>
       </c>
       <c r="H20">
-        <v>1660.530305412316</v>
+        <v>3985926.315675483</v>
       </c>
       <c r="I20">
-        <v>-729.9306112735745</v>
+        <v>1115522.729233321</v>
       </c>
       <c r="J20">
-        <v>1131.249826861758</v>
+        <v>4842349.670896219</v>
       </c>
       <c r="K20">
-        <v>1668.876346678213</v>
+        <v>3987521.038798516</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>91.02861926975832</v>
+        <v>1116431.606074247</v>
       </c>
       <c r="G21">
-        <v>123.4811794169637</v>
+        <v>4841324.396500986</v>
       </c>
       <c r="H21">
-        <v>1688.130227240549</v>
+        <v>3985952.282149114</v>
       </c>
       <c r="I21">
-        <v>-690.0247370618636</v>
+        <v>1115568.613027012</v>
       </c>
       <c r="J21">
-        <v>1082.296255516083</v>
+        <v>4842301.019286635</v>
       </c>
       <c r="K21">
-        <v>1685.360788216668</v>
+        <v>3987552.158898751</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>87.46845398199889</v>
+        <v>1116428.830057642</v>
       </c>
       <c r="G22">
-        <v>144.2549274579574</v>
+        <v>4841340.909325925</v>
       </c>
       <c r="H22">
-        <v>1713.530375659574</v>
+        <v>3985976.179038685</v>
       </c>
       <c r="I22">
-        <v>-649.1362174104199</v>
+        <v>1115615.62666691</v>
       </c>
       <c r="J22">
-        <v>1033.342684170409</v>
+        <v>4842252.367677052</v>
       </c>
       <c r="K22">
-        <v>1693.820923328304</v>
+        <v>3987568.130337763</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>84.29511160483108</v>
+        <v>1116426.355663782</v>
       </c>
       <c r="G23">
-        <v>165.0286754989511</v>
+        <v>4841357.422150863</v>
       </c>
       <c r="H23">
-        <v>1737.055666577551</v>
+        <v>3985998.312030585</v>
       </c>
       <c r="I23">
-        <v>-607.240855579308</v>
+        <v>1115663.79797444</v>
       </c>
       <c r="J23">
-        <v>984.3891128247341</v>
+        <v>4842203.716067468</v>
       </c>
       <c r="K23">
-        <v>1694.256752013121</v>
+        <v>3987568.953115551</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>81.44336231615968</v>
+        <v>1116424.13203012</v>
       </c>
       <c r="G24">
-        <v>185.8024235399449</v>
+        <v>4841373.934975802</v>
       </c>
       <c r="H24">
-        <v>1758.963953149789</v>
+        <v>3986018.923717426</v>
       </c>
       <c r="I24">
-        <v>-564.3138590061311</v>
+        <v>1115713.1554561</v>
       </c>
       <c r="J24">
-        <v>935.4355414790592</v>
+        <v>4842155.064457883</v>
       </c>
       <c r="K24">
-        <v>1686.668274271119</v>
+        <v>3987554.627232117</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>78.86238538210996</v>
+        <v>1116422.119529507</v>
       </c>
       <c r="G25">
-        <v>206.5761715809386</v>
+        <v>4841390.44780074</v>
       </c>
       <c r="H25">
-        <v>1779.463299390985</v>
+        <v>3986038.209849355</v>
       </c>
       <c r="I25">
-        <v>-520.3298246344522</v>
+        <v>1115763.728320338</v>
       </c>
       <c r="J25">
-        <v>886.4819701333847</v>
+        <v>4842106.412848298</v>
       </c>
       <c r="K25">
-        <v>1671.055490102298</v>
+        <v>3987525.152687459</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>76.51192395979261</v>
+        <v>1116420.286771921</v>
       </c>
       <c r="G26">
-        <v>227.3499196219324</v>
+        <v>4841406.960625678</v>
       </c>
       <c r="H26">
-        <v>1798.724027128188</v>
+        <v>3986056.33066803</v>
       </c>
       <c r="I26">
-        <v>-475.2627238809404</v>
+        <v>1115815.546494832</v>
       </c>
       <c r="J26">
-        <v>837.5283987877099</v>
+        <v>4842057.761238715</v>
       </c>
       <c r="K26">
-        <v>1647.418399506658</v>
+        <v>3987480.529481579</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>74.35962266804357</v>
+        <v>1116418.608528458</v>
       </c>
       <c r="G27">
-        <v>248.1236676629261</v>
+        <v>4841423.473450617</v>
       </c>
       <c r="H27">
-        <v>1816.887326264704</v>
+        <v>3986073.419007301</v>
       </c>
       <c r="I27">
-        <v>-429.085887232346</v>
+        <v>1115868.640644201</v>
       </c>
       <c r="J27">
-        <v>788.574827442035</v>
+        <v>4842009.10962913</v>
       </c>
       <c r="K27">
-        <v>1615.7570024842</v>
+        <v>3987420.757614475</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>72.37914110787574</v>
+        <v>1116417.064260354</v>
       </c>
       <c r="G28">
-        <v>268.8974157039198</v>
+        <v>4841439.986275556</v>
       </c>
       <c r="H28">
-        <v>1834.071541601735</v>
+        <v>3986089.586207962</v>
       </c>
       <c r="I28">
-        <v>-381.7719884631908</v>
+        <v>1115923.042188152</v>
       </c>
       <c r="J28">
-        <v>739.6212560963604</v>
+        <v>4841960.458019546</v>
       </c>
       <c r="K28">
-        <v>1576.071299034923</v>
+        <v>3987345.837086148</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>70.54878972455613</v>
+        <v>1116415.637055317</v>
       </c>
       <c r="G29">
-        <v>289.6711637449136</v>
+        <v>4841456.499100494</v>
       </c>
       <c r="H29">
-        <v>1850.376850212147</v>
+        <v>3986104.926518296</v>
       </c>
       <c r="I29">
-        <v>-333.2930284648334</v>
+        <v>1115978.783320075</v>
       </c>
       <c r="J29">
-        <v>690.6676847506856</v>
+        <v>4841911.806409962</v>
       </c>
       <c r="K29">
-        <v>1528.361289158826</v>
+        <v>3987255.767896598</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>68.85052539604403</v>
+        <v>1116414.312844335</v>
       </c>
       <c r="G30">
-        <v>310.4449117859073</v>
+        <v>4841473.011925432</v>
       </c>
       <c r="H30">
-        <v>1865.888799805622</v>
+        <v>3986119.520423039</v>
       </c>
       <c r="I30">
-        <v>-283.620318676342</v>
+        <v>1116035.89702609</v>
       </c>
       <c r="J30">
-        <v>641.7141134050108</v>
+        <v>4841863.154800379</v>
       </c>
       <c r="K30">
-        <v>1472.626972855911</v>
+        <v>3987150.550045825</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>67.2691998388561</v>
+        <v>1116413.079815627</v>
       </c>
       <c r="G31">
-        <v>331.218659826901</v>
+        <v>4841489.524750371</v>
       </c>
       <c r="H31">
-        <v>1880.681025522724</v>
+        <v>3986133.437199377</v>
       </c>
       <c r="I31">
-        <v>-232.7244641073642</v>
+        <v>1116094.417104573</v>
       </c>
       <c r="J31">
-        <v>592.7605420593362</v>
+        <v>4841814.503190794</v>
       </c>
       <c r="K31">
-        <v>1408.868350126177</v>
+        <v>3987030.183533829</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>65.79198895905785</v>
+        <v>1116411.927969687</v>
       </c>
       <c r="G32">
-        <v>351.9924078678948</v>
+        <v>4841506.03757531</v>
       </c>
       <c r="H32">
-        <v>1894.817363947307</v>
+        <v>3986146.736905847</v>
       </c>
       <c r="I32">
-        <v>-180.575345942953</v>
+        <v>1116154.37818615</v>
       </c>
       <c r="J32">
-        <v>543.8069707136614</v>
+        <v>4841765.851581209</v>
       </c>
       <c r="K32">
-        <v>1337.085420969624</v>
+        <v>3986894.66836061</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>64.40795385134447</v>
+        <v>1116410.848776973</v>
       </c>
       <c r="G33">
-        <v>372.7661559088885</v>
+        <v>4841522.550400248</v>
       </c>
       <c r="H33">
-        <v>1908.353518029979</v>
+        <v>3986159.47194873</v>
       </c>
       <c r="I33">
-        <v>-127.1421037200518</v>
+        <v>1116215.815754199</v>
       </c>
       <c r="J33">
-        <v>494.8533993679868</v>
+        <v>4841717.199971626</v>
       </c>
       <c r="K33">
-        <v>1257.278185386253</v>
+        <v>3986744.004526167</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>63.10769901506993</v>
+        <v>1116409.834911401</v>
       </c>
       <c r="G34">
-        <v>393.5399039498823</v>
+        <v>4841539.063225186</v>
       </c>
       <c r="H34">
-        <v>1921.338382754336</v>
+        <v>3986171.688329253</v>
       </c>
       <c r="I34">
-        <v>-72.39311706509315</v>
+        <v>1116278.766165839</v>
       </c>
       <c r="J34">
-        <v>445.899828022312</v>
+        <v>4841668.548362042</v>
       </c>
       <c r="K34">
-        <v>1169.446643376062</v>
+        <v>3986578.192030502</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>61.88310334005302</v>
+        <v>1116408.880040587</v>
       </c>
       <c r="G35">
-        <v>414.313651990876</v>
+        <v>4841555.576050124</v>
       </c>
       <c r="H35">
-        <v>1933.815111263249</v>
+        <v>3986183.426646623</v>
       </c>
       <c r="I35">
-        <v>-16.29598698190049</v>
+        <v>1116343.266673452</v>
       </c>
       <c r="J35">
-        <v>396.9462566766371</v>
+        <v>4841619.896752457</v>
       </c>
       <c r="K35">
-        <v>1073.590794939052</v>
+        <v>3986397.230873613</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>60.72710624139869</v>
+        <v>1116407.978659083</v>
       </c>
       <c r="G36">
-        <v>435.0874000318698</v>
+        <v>4841572.088875063</v>
       </c>
       <c r="H36">
-        <v>1945.821980130041</v>
+        <v>3986194.722912089</v>
       </c>
       <c r="I36">
-        <v>41.18248332117759</v>
+        <v>1116409.355446725</v>
       </c>
       <c r="J36">
-        <v>347.9926853309626</v>
+        <v>4841571.245142873</v>
       </c>
       <c r="K36">
-        <v>969.7106400752242</v>
+        <v>3986201.121055502</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>59.63353606708334</v>
+        <v>1116407.125954583</v>
       </c>
       <c r="G37">
-        <v>455.8611480728634</v>
+        <v>4841588.601700002</v>
       </c>
       <c r="H37">
-        <v>1957.393097539123</v>
+        <v>3986205.609215208</v>
       </c>
       <c r="I37">
-        <v>100.0763080762458</v>
+        <v>1116477.07159524</v>
       </c>
       <c r="J37">
-        <v>299.0391139852877</v>
+        <v>4841522.59353329</v>
       </c>
       <c r="K37">
-        <v>857.806178784577</v>
+        <v>3985989.862576167</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>58.59697124941955</v>
+        <v>1116406.317699653</v>
       </c>
       <c r="G38">
-        <v>476.6348961138572</v>
+        <v>4841605.11452494</v>
       </c>
       <c r="H38">
-        <v>1968.558987404205</v>
+        <v>3986216.114273394</v>
       </c>
       <c r="I38">
-        <v>160.4203390845828</v>
+        <v>1116546.455191615</v>
       </c>
       <c r="J38">
-        <v>250.0855426396131</v>
+        <v>4841473.941923706</v>
       </c>
       <c r="K38">
-        <v>737.8774110671112</v>
+        <v>3985763.455435609</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>57.61262706603947</v>
+        <v>1116405.550163436</v>
       </c>
       <c r="G39">
-        <v>497.408644154851</v>
+        <v>4841621.627349879</v>
       </c>
       <c r="H39">
-        <v>1979.347074624219</v>
+        <v>3986226.263888456</v>
       </c>
       <c r="I39">
-        <v>222.250286341009</v>
+        <v>1116617.547295219</v>
       </c>
       <c r="J39">
-        <v>201.1319712939383</v>
+        <v>4841425.29031412</v>
       </c>
       <c r="K39">
-        <v>609.9243369228259</v>
+        <v>3985521.899633828</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>56.67626261092316</v>
+        <v>1116404.820039112</v>
       </c>
       <c r="G40">
-        <v>518.1823921958447</v>
+        <v>4841638.140174817</v>
       </c>
       <c r="H40">
-        <v>1989.782090900263</v>
+        <v>3986236.081328399</v>
       </c>
       <c r="I40">
-        <v>285.6027391661167</v>
+        <v>1116690.38997647</v>
       </c>
       <c r="J40">
-        <v>152.1783999482635</v>
+        <v>4841376.638704536</v>
       </c>
       <c r="K40">
-        <v>473.946956351722</v>
+        <v>3985265.195170824</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>55.78410384790921</v>
+        <v>1116404.124383899</v>
       </c>
       <c r="G41">
-        <v>538.9561402368385</v>
+        <v>4841654.652999755</v>
       </c>
       <c r="H41">
-        <v>1999.886416225584</v>
+        <v>3986245.587648697</v>
       </c>
       <c r="I41">
-        <v>350.5151878588538</v>
+        <v>1116765.026341733</v>
       </c>
       <c r="J41">
-        <v>103.2248286025889</v>
+        <v>4841327.987094953</v>
       </c>
       <c r="K41">
-        <v>329.9452693537995</v>
+        <v>3984993.342046597</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>54.9327795619128</v>
+        <v>1116403.460569115</v>
       </c>
       <c r="G42">
-        <v>559.7298882778322</v>
+        <v>4841671.165824695</v>
       </c>
       <c r="H42">
-        <v>2009.680367909468</v>
+        <v>3986254.80196422</v>
       </c>
       <c r="I42">
-        <v>417.0260458822933</v>
+        <v>1116841.500558826</v>
       </c>
       <c r="J42">
-        <v>54.27125725691406</v>
+        <v>4841279.335485369</v>
       </c>
       <c r="K42">
-        <v>177.9192759290576</v>
+        <v>3984706.340261146</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>54.11926772907341</v>
+        <v>1116402.826238354</v>
       </c>
       <c r="G43">
-        <v>580.5036363188259</v>
+        <v>4841687.678649633</v>
       </c>
       <c r="H43">
-        <v>2019.182446520373</v>
+        <v>3986263.741680616</v>
       </c>
       <c r="I43">
-        <v>485.1746725956919</v>
+        <v>1116919.857883161</v>
       </c>
       <c r="J43">
-        <v>5.317685911239241</v>
+        <v>4841230.683875784</v>
       </c>
       <c r="K43">
-        <v>17.86897607749706</v>
+        <v>3984404.189814473</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>53.34085036082212</v>
+        <v>1116402.219272282</v>
       </c>
       <c r="G44">
-        <v>601.2773843598196</v>
+        <v>4841704.191474571</v>
       </c>
       <c r="H44">
-        <v>2028.409546231466</v>
+        <v>3986272.422692208</v>
       </c>
       <c r="I44">
-        <v>555.0013965463205</v>
+        <v>1117000.14468452</v>
       </c>
       <c r="J44">
-        <v>-43.63588543443535</v>
+        <v>4841182.032266201</v>
       </c>
       <c r="K44">
-        <v>-150.2056302008819</v>
+        <v>3984086.890706576</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>52.59507528402372</v>
+        <v>1116401.637758833</v>
       </c>
       <c r="G45">
-        <v>622.0511324008133</v>
+        <v>4841720.70429951</v>
       </c>
       <c r="H45">
-        <v>2037.377135577875</v>
+        <v>3986280.859552056</v>
       </c>
       <c r="I45">
-        <v>626.5475393348255</v>
+        <v>1117082.408474499</v>
       </c>
       <c r="J45">
-        <v>-92.58945678011018</v>
+        <v>4841133.380656616</v>
       </c>
       <c r="K45">
-        <v>-326.3045429060803</v>
+        <v>3983754.442937457</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>51.8797236325556</v>
+        <v>1116401.079967859</v>
       </c>
       <c r="G46">
-        <v>642.8248804418072</v>
+        <v>4841737.217124447</v>
       </c>
       <c r="H46">
-        <v>2046.099413483744</v>
+        <v>3986289.065618749</v>
       </c>
       <c r="I46">
-        <v>699.8554400682535</v>
+        <v>1117166.697934626</v>
       </c>
       <c r="J46">
-        <v>-141.543028125785</v>
+        <v>4841084.729047031</v>
       </c>
       <c r="K46">
-        <v>-510.4277620380979</v>
+        <v>3983406.846507114</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>51.1927820685296</v>
+        <v>1116400.544329473</v>
       </c>
       <c r="G47">
-        <v>663.5986284828009</v>
+        <v>4841753.729949387</v>
       </c>
       <c r="H47">
-        <v>2054.5894445113</v>
+        <v>3986297.053183647</v>
       </c>
       <c r="I47">
-        <v>774.96848041521</v>
+        <v>1117253.062945163</v>
       </c>
       <c r="J47">
-        <v>-190.4965994714598</v>
+        <v>4841036.077437447</v>
       </c>
       <c r="K47">
-        <v>-702.5752875969341</v>
+        <v>3983044.101415548</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>50.53241894103995</v>
+        <v>1116400.029415457</v>
       </c>
       <c r="G48">
-        <v>684.3723765237945</v>
+        <v>4841770.242774325</v>
       </c>
       <c r="H48">
-        <v>2062.859276566387</v>
+        <v>3986304.833581625</v>
       </c>
       <c r="I48">
-        <v>851.9311102779799</v>
+        <v>1117341.554614631</v>
       </c>
       <c r="J48">
-        <v>-239.4501708171342</v>
+        <v>4840987.425827864</v>
       </c>
       <c r="K48">
-        <v>-902.7471195825877</v>
+        <v>3982666.207662759</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>49.89696373952295</v>
+        <v>1116399.53392324</v>
       </c>
       <c r="G49">
-        <v>705.1461245647884</v>
+        <v>4841786.755599263</v>
       </c>
       <c r="H49">
-        <v>2070.920043722278</v>
+        <v>3986312.417287807</v>
       </c>
       <c r="I49">
-        <v>930.7888740968002</v>
+        <v>1117432.225310048</v>
       </c>
       <c r="J49">
-        <v>-288.403742162809</v>
+        <v>4840938.77421828</v>
       </c>
       <c r="K49">
-        <v>-1110.943257995061</v>
+        <v>3982273.165248747</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>49.28488931694798</v>
+        <v>1116399.056662039</v>
       </c>
       <c r="G50">
-        <v>725.9198726057821</v>
+        <v>4841803.268424202</v>
       </c>
       <c r="H50">
-        <v>2078.782056364036</v>
+        <v>3986319.814002378</v>
       </c>
       <c r="I50">
-        <v>1011.588437801846</v>
+        <v>1117525.128687924</v>
       </c>
       <c r="J50">
-        <v>-337.3573135084839</v>
+        <v>4840890.122608695</v>
       </c>
       <c r="K50">
-        <v>-1327.163702834355</v>
+        <v>3981864.974173512</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>48.69479645218554</v>
+        <v>1116398.596540821</v>
       </c>
       <c r="G51">
-        <v>746.6936206467758</v>
+        <v>4841819.78124914</v>
       </c>
       <c r="H51">
-        <v>2086.454880484578</v>
+        <v>3986327.032725186</v>
       </c>
       <c r="I51">
-        <v>1094.377616428893</v>
+        <v>1117620.319726011</v>
       </c>
       <c r="J51">
-        <v>-386.3108848541586</v>
+        <v>4840841.470999111</v>
       </c>
       <c r="K51">
-        <v>-1551.408454100466</v>
+        <v>3981441.634437053</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>48.12540039634371</v>
+        <v>1116398.152557809</v>
       </c>
       <c r="G52">
-        <v>767.4673686877696</v>
+        <v>4841836.294074079</v>
       </c>
       <c r="H52">
-        <v>2093.947407662339</v>
+        <v>3986334.081821578</v>
       </c>
       <c r="I52">
-        <v>1179.205402414984</v>
+        <v>1117717.854755837</v>
       </c>
       <c r="J52">
-        <v>-435.2644561998335</v>
+        <v>4840792.819389527</v>
       </c>
       <c r="K52">
-        <v>-1783.677511793397</v>
+        <v>3981003.146039372</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>47.57551910866728</v>
+        <v>1116397.723791316</v>
       </c>
       <c r="G53">
-        <v>788.2411167287632</v>
+        <v>4841852.806899018</v>
       </c>
       <c r="H53">
-        <v>2101.267917004448</v>
+        <v>3986340.969080679</v>
       </c>
       <c r="I53">
-        <v>1266.121994590849</v>
+        <v>1117817.791496042</v>
       </c>
       <c r="J53">
-        <v>-484.2180275455078</v>
+        <v>4840744.167779943</v>
       </c>
       <c r="K53">
-        <v>-2023.970875913144</v>
+        <v>3980549.508980468</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>47.04406293687371</v>
+        <v>1116397.309391692</v>
       </c>
       <c r="G54">
-        <v>809.014864769757</v>
+        <v>4841869.319723956</v>
       </c>
       <c r="H54">
-        <v>2108.424130137605</v>
+        <v>3986347.701767126</v>
       </c>
       <c r="I54">
-        <v>1355.178827887247</v>
+        <v>1117920.189086534</v>
       </c>
       <c r="J54">
-        <v>-533.1715988911827</v>
+        <v>4840695.516170358</v>
       </c>
       <c r="K54">
-        <v>-2272.288546459713</v>
+        <v>3980080.72326034</v>
       </c>
     </row>
   </sheetData>
